--- a/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC10.xlsx
+++ b/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO_REC10.xlsx
@@ -460,9 +460,6 @@
     <t>Área:</t>
   </si>
   <si>
-    <t>CN_08_01_REC10</t>
-  </si>
-  <si>
     <t>CN_08_02_REC10_IMG01</t>
   </si>
   <si>
@@ -536,6 +533,9 @@
   </si>
   <si>
     <t>Herrero</t>
+  </si>
+  <si>
+    <t>CN_03_04_REC10</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2261,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2334,7 +2334,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="83"/>
       <c r="E4" s="5"/>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="85"/>
       <c r="E5" s="5"/>
@@ -2364,7 +2364,7 @@
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="70"/>
@@ -2390,7 +2390,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>39</v>
@@ -2470,14 +2470,14 @@
         <v>Recurso F1</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG01.jpg</v>
+        <v>CN_03_04_REC10_IMG01.jpg</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2492,7 +2492,7 @@
         <v/>
       </c>
       <c r="J10" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2509,14 +2509,14 @@
         <v>Recurso F1</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG02.jpg</v>
+        <v>CN_03_04_REC10_IMG02.jpg</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2531,7 +2531,7 @@
         <v/>
       </c>
       <c r="J11" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="15"/>
     </row>
@@ -2548,14 +2548,14 @@
         <v>Recurso F1</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC10_IMG03.jpg</v>
+        <v>CN_03_04_REC10_IMG03.jpg</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2570,7 +2570,7 @@
         <v/>
       </c>
       <c r="J12" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -2587,14 +2587,14 @@
         <v>Recurso F1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC10_IMG04.jpg</v>
+        <v>CN_03_04_REC10_IMG04.jpg</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2609,7 +2609,7 @@
         <v/>
       </c>
       <c r="J13" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -2626,14 +2626,14 @@
         <v>Recurso F1</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_REC10_IMG05.jpg</v>
+        <v>CN_03_04_REC10_IMG05.jpg</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2648,7 +2648,7 @@
         <v/>
       </c>
       <c r="J14" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -6440,7 +6440,7 @@
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -6466,10 +6466,10 @@
       </c>
       <c r="G4" s="53"/>
       <c r="H4" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" s="53"/>
     </row>
@@ -6494,10 +6494,10 @@
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="55"/>
     </row>
@@ -6524,13 +6524,13 @@
         <v>73</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="53" t="s">
         <v>134</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -6554,10 +6554,10 @@
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="53"/>
     </row>
@@ -6582,10 +6582,10 @@
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J8" s="53"/>
     </row>
@@ -6610,10 +6610,10 @@
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" s="53"/>
     </row>
@@ -6636,10 +6636,10 @@
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" s="53"/>
     </row>
@@ -6664,10 +6664,10 @@
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" s="53"/>
     </row>
@@ -6692,10 +6692,10 @@
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="53"/>
     </row>
@@ -6719,7 +6719,7 @@
       <c r="G13" s="56"/>
       <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="31" t="s">
@@ -6746,7 +6746,7 @@
       <c r="G14" s="56"/>
       <c r="H14" s="53"/>
       <c r="I14" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="56"/>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
@@ -6796,10 +6796,10 @@
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J16" s="57"/>
       <c r="K16" s="59" t="s">
@@ -6845,7 +6845,7 @@
         <v>113</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>22</v>
@@ -6858,10 +6858,10 @@
         <v>114</v>
       </c>
       <c r="B22" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="68" t="s">
         <v>138</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>139</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
@@ -6871,10 +6871,10 @@
         <v>115</v>
       </c>
       <c r="B23" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="68" t="s">
         <v>140</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>141</v>
       </c>
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
@@ -6884,10 +6884,10 @@
         <v>116</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="67"/>
@@ -6897,10 +6897,10 @@
         <v>117</v>
       </c>
       <c r="B25" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="68" t="s">
         <v>143</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>144</v>
       </c>
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
